--- a/LubanConfig/Datas/EntranceNatureConfig.xlsx
+++ b/LubanConfig/Datas/EntranceNatureConfig.xlsx
@@ -101,112 +101,112 @@
     <t>1</t>
   </si>
   <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>绑定手机</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>BindPhone</t>
+  </si>
+  <si>
+    <t>转盘</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>首充</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>每日回馈</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>FeedBack</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>StrongBox</t>
+  </si>
+  <si>
     <t>商城</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Store</t>
-  </si>
-  <si>
-    <t>签到</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SignIn</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>绑定手机</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>BindPhone</t>
-  </si>
-  <si>
-    <t>转盘</t>
-  </si>
-  <si>
-    <t>Wheel</t>
-  </si>
-  <si>
-    <t>首充</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Sale</t>
-  </si>
-  <si>
-    <t>每日回馈</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>FeedBack</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>排行榜</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>客服</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>任务</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>StrongBox</t>
   </si>
   <si>
     <t>表头</t>
@@ -1034,12 +1034,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1519,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,9 +1558,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1918,7 +1915,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2038,31 +2035,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -2071,13 +2068,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
@@ -2086,16 +2083,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="6">
         <v>5</v>
@@ -2104,16 +2101,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>5</v>
@@ -2122,129 +2119,129 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="K15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -2323,7 +2320,7 @@
       <c r="B30" s="11"/>
       <c r="D30" s="12"/>
       <c r="I30" s="11"/>
-      <c r="O30" s="14"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="11"/>
@@ -2364,8 +2361,8 @@
       <c r="B39" s="11"/>
       <c r="D39" s="12"/>
       <c r="I39" s="11"/>
-      <c r="K39" s="14"/>
-      <c r="O39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="11"/>
@@ -2375,7 +2372,7 @@
     <row r="41" spans="2:15">
       <c r="B41" s="11"/>
       <c r="I41" s="11"/>
-      <c r="O41" s="14"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="11"/>
